--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/15/seed2/result_data_RandomForest.xlsx
@@ -465,7 +465,7 @@
         <v>-20.51</v>
       </c>
       <c r="B2" t="n">
-        <v>8.349700000000004</v>
+        <v>8.307</v>
       </c>
       <c r="C2" t="n">
         <v>-10.94</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.7519</v>
+        <v>-21.8085</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.545699999999994</v>
+        <v>-7.414599999999996</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.59130000000001</v>
+        <v>16.54880000000001</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.249400000000001</v>
+        <v>-7.265700000000002</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.70859999999999</v>
+        <v>-21.86049999999999</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.2454</v>
+        <v>16.26209999999999</v>
       </c>
     </row>
     <row r="20">
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.21919999999998</v>
+        <v>-20.15989999999999</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.11689999999998</v>
+        <v>-20.12719999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -845,24 +845,24 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.338500000000002</v>
+        <v>-7.370800000000004</v>
       </c>
       <c r="E24" t="n">
-        <v>17.0471</v>
+        <v>16.96730000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.81969999999999</v>
+        <v>-21.8689</v>
       </c>
       <c r="B25" t="n">
-        <v>5.828300000000002</v>
+        <v>5.850400000000002</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.500399999999994</v>
+        <v>-8.94579999999999</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.14559999999997</v>
+        <v>-21.08039999999996</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.274900000000001</v>
+        <v>6.322300000000001</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.73379999999997</v>
+        <v>-20.62419999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.43469999999999</v>
+        <v>15.654</v>
       </c>
     </row>
     <row r="31">
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.049</v>
+        <v>4.903199999999999</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.1549</v>
+        <v>16.232</v>
       </c>
     </row>
     <row r="32">
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>16.92890000000002</v>
+        <v>16.86280000000002</v>
       </c>
     </row>
     <row r="34">
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>9.534800000000004</v>
+        <v>9.566300000000002</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.4262</v>
+        <v>16.39259999999999</v>
       </c>
     </row>
     <row r="43">
@@ -1247,7 +1247,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.518500000000004</v>
+        <v>5.096000000000001</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.210600000000001</v>
+        <v>-8.195500000000001</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.550200000000001</v>
+        <v>5.573099999999999</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>4.990500000000003</v>
+        <v>5.143599999999999</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-22.22140000000001</v>
+        <v>-22.21700000000001</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1338,7 +1338,7 @@
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-6.207399999999996</v>
+        <v>-6.0812</v>
       </c>
       <c r="E53" t="n">
         <v>18.53</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.111899999999997</v>
+        <v>5.924999999999998</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.48149999999999</v>
+        <v>16.4927</v>
       </c>
     </row>
     <row r="56">
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>5.263700000000001</v>
+        <v>5.368499999999996</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.4808</v>
+        <v>-22.1401</v>
       </c>
       <c r="B57" t="n">
-        <v>4.774799999999996</v>
+        <v>4.592999999999996</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.472800000000001</v>
+        <v>-8.478300000000004</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1426,12 +1426,12 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.33990000000001</v>
+        <v>16.73840000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.4671</v>
+        <v>-22.2893</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1474,7 +1474,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.6776</v>
+        <v>-7.678299999999999</v>
       </c>
       <c r="E61" t="n">
         <v>16.69</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.860000000000001</v>
+        <v>-7.756400000000005</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1545,7 +1545,7 @@
         <v>-7.07</v>
       </c>
       <c r="E65" t="n">
-        <v>16.79850000000001</v>
+        <v>16.72160000000001</v>
       </c>
     </row>
     <row r="66">
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.54599999999999</v>
+        <v>-21.58579999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1627,10 +1627,10 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-8.232099999999999</v>
+        <v>-8.1317</v>
       </c>
       <c r="E70" t="n">
-        <v>16.9918</v>
+        <v>16.90799999999999</v>
       </c>
     </row>
     <row r="71">
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.492699999999992</v>
+        <v>8.602899999999998</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1715,7 +1715,7 @@
         <v>-7.62</v>
       </c>
       <c r="E75" t="n">
-        <v>16.64670000000001</v>
+        <v>16.58440000000001</v>
       </c>
     </row>
     <row r="76">
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.5372</v>
+        <v>-20.3634</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-22.0518</v>
+        <v>-22.04249999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.5711</v>
+        <v>16.66520000000001</v>
       </c>
     </row>
     <row r="84">
@@ -1899,10 +1899,10 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.678899999999999</v>
+        <v>-8.741400000000006</v>
       </c>
       <c r="E86" t="n">
-        <v>16.0222</v>
+        <v>15.9304</v>
       </c>
     </row>
     <row r="87">
@@ -1944,7 +1944,7 @@
         <v>-21.45</v>
       </c>
       <c r="B89" t="n">
-        <v>4.818699999999995</v>
+        <v>4.799799999999994</v>
       </c>
       <c r="C89" t="n">
         <v>-10.11</v>
@@ -1961,7 +1961,7 @@
         <v>-21.82</v>
       </c>
       <c r="B90" t="n">
-        <v>5.474400000000002</v>
+        <v>5.811700000000005</v>
       </c>
       <c r="C90" t="n">
         <v>-12.06</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.33130000000001</v>
+        <v>-21.37130000000002</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1995,7 +1995,7 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>4.843299999999995</v>
+        <v>4.830799999999996</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.85859999999997</v>
+        <v>-20.79469999999998</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>15.7621</v>
+        <v>15.97359999999999</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>17.14150000000002</v>
+        <v>17.04170000000002</v>
       </c>
     </row>
     <row r="98">
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.813299999999998</v>
+        <v>-8.739499999999998</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.789399999999995</v>
+        <v>-8.643899999999999</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.420799999999995</v>
+        <v>-7.815399999999994</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
